--- a/cicada_ig/output/ValueSet-valid-age-reason.xlsx
+++ b/cicada_ig/output/ValueSet-valid-age-reason.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Valid Age Reason" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhirfli.dev/fhir/ig/pythia/ValueSet/valid-age-reason</t>
+    <t>http://fhirfli.dev/fhir/ig/cicada/ValueSet/valid-age-reason</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T15:25:10-04:00</t>
+    <t>2026-02-11T14:37:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,6 +72,12 @@
     <t>FHIR-FLI (http://fhirfli.dev)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -111,13 +117,10 @@
     <t>Age: Too Old</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>System URI</t>
   </si>
   <si>
-    <t>http://fhirfli.dev/fhir/ig/pythia/CodeSystem/ValidAgeReason</t>
+    <t>http://fhirfli.dev/fhir/ig/cicada/CodeSystem/ValidAgeReason</t>
   </si>
 </sst>
 </file>
@@ -251,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -351,20 +354,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -386,50 +397,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
